--- a/data/2024/ssg/7,27_DE-7.xlsx
+++ b/data/2024/ssg/7,27_DE-7.xlsx
@@ -160,6 +160,9 @@
     <t>1.1961 -</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -182,9 +185,6 @@
   </si>
   <si>
     <t>1.1966 -</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>6</t>
@@ -2355,16 +2355,16 @@
         <v>32</v>
       </c>
       <c r="U3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="X3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y3" t="s">
         <v>32</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -2381,13 +2381,13 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
@@ -2396,10 +2396,10 @@
         <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
         <v>46</v>
@@ -2423,7 +2423,7 @@
         <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S4" t="s">
         <v>32</v>
@@ -2435,7 +2435,7 @@
         <v>37</v>
       </c>
       <c r="V4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="W4" t="s">
         <v>32</v>
@@ -2509,10 +2509,10 @@
         <v>32</v>
       </c>
       <c r="U5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V5" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W5" t="s">
         <v>32</v>
@@ -2595,7 +2595,7 @@
         <v>32</v>
       </c>
       <c r="X6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y6" t="s">
         <v>32</v>
@@ -2749,7 +2749,7 @@
         <v>32</v>
       </c>
       <c r="X8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y8" t="s">
         <v>32</v>
@@ -2826,7 +2826,7 @@
         <v>32</v>
       </c>
       <c r="X9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y9" t="s">
         <v>32</v>
@@ -2980,7 +2980,7 @@
         <v>32</v>
       </c>
       <c r="X11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y11" t="s">
         <v>32</v>
@@ -3134,7 +3134,7 @@
         <v>32</v>
       </c>
       <c r="X13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y13" t="s">
         <v>32</v>
@@ -3211,7 +3211,7 @@
         <v>32</v>
       </c>
       <c r="X14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y14" t="s">
         <v>32</v>
@@ -3288,7 +3288,7 @@
         <v>32</v>
       </c>
       <c r="X15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y15" t="s">
         <v>32</v>
@@ -3365,7 +3365,7 @@
         <v>32</v>
       </c>
       <c r="X16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y16" t="s">
         <v>32</v>
@@ -3442,7 +3442,7 @@
         <v>32</v>
       </c>
       <c r="X17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y17" t="s">
         <v>32</v>
@@ -3596,7 +3596,7 @@
         <v>32</v>
       </c>
       <c r="X19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y19" t="s">
         <v>32</v>
@@ -3673,7 +3673,7 @@
         <v>32</v>
       </c>
       <c r="X20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y20" t="s">
         <v>32</v>
@@ -3750,7 +3750,7 @@
         <v>32</v>
       </c>
       <c r="X21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y21" t="s">
         <v>32</v>
@@ -3827,7 +3827,7 @@
         <v>32</v>
       </c>
       <c r="X22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y22" t="s">
         <v>32</v>
@@ -3904,7 +3904,7 @@
         <v>32</v>
       </c>
       <c r="X23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y23" t="s">
         <v>32</v>
@@ -3981,7 +3981,7 @@
         <v>32</v>
       </c>
       <c r="X24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y24" t="s">
         <v>32</v>
@@ -4058,7 +4058,7 @@
         <v>32</v>
       </c>
       <c r="X25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y25" t="s">
         <v>32</v>
@@ -4135,7 +4135,7 @@
         <v>32</v>
       </c>
       <c r="X26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y26" t="s">
         <v>32</v>
@@ -4203,10 +4203,10 @@
         <v>32</v>
       </c>
       <c r="U27" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V27" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W27" t="s">
         <v>32</v>
@@ -4289,7 +4289,7 @@
         <v>32</v>
       </c>
       <c r="X28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y28" t="s">
         <v>32</v>
@@ -4366,7 +4366,7 @@
         <v>32</v>
       </c>
       <c r="X29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y29" t="s">
         <v>32</v>
@@ -4502,7 +4502,7 @@
         <v>201</v>
       </c>
       <c r="R31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S31" t="s">
         <v>32</v>
@@ -4674,7 +4674,7 @@
         <v>32</v>
       </c>
       <c r="X33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y33" t="s">
         <v>32</v>
@@ -4751,7 +4751,7 @@
         <v>32</v>
       </c>
       <c r="X34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y34" t="s">
         <v>32</v>
@@ -4828,7 +4828,7 @@
         <v>32</v>
       </c>
       <c r="X35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y35" t="s">
         <v>32</v>
@@ -4905,7 +4905,7 @@
         <v>32</v>
       </c>
       <c r="X36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y36" t="s">
         <v>32</v>
@@ -4982,7 +4982,7 @@
         <v>32</v>
       </c>
       <c r="X37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y37" t="s">
         <v>32</v>
@@ -5059,7 +5059,7 @@
         <v>32</v>
       </c>
       <c r="X38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y38" t="s">
         <v>32</v>
@@ -5136,7 +5136,7 @@
         <v>32</v>
       </c>
       <c r="X39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y39" t="s">
         <v>32</v>
@@ -5213,7 +5213,7 @@
         <v>32</v>
       </c>
       <c r="X40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y40" t="s">
         <v>32</v>
@@ -5248,7 +5248,7 @@
         <v>32</v>
       </c>
       <c r="J41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K41" t="s">
         <v>46</v>
@@ -5290,7 +5290,7 @@
         <v>32</v>
       </c>
       <c r="X41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y41" t="s">
         <v>32</v>
@@ -5367,7 +5367,7 @@
         <v>32</v>
       </c>
       <c r="X42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y42" t="s">
         <v>32</v>
@@ -5521,7 +5521,7 @@
         <v>32</v>
       </c>
       <c r="X44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y44" t="s">
         <v>32</v>
@@ -5598,7 +5598,7 @@
         <v>32</v>
       </c>
       <c r="X45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y45" t="s">
         <v>32</v>
@@ -5675,7 +5675,7 @@
         <v>32</v>
       </c>
       <c r="X46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y46" t="s">
         <v>32</v>
@@ -5752,7 +5752,7 @@
         <v>32</v>
       </c>
       <c r="X47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y47" t="s">
         <v>32</v>
@@ -5829,7 +5829,7 @@
         <v>32</v>
       </c>
       <c r="X48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y48" t="s">
         <v>32</v>
@@ -5906,7 +5906,7 @@
         <v>32</v>
       </c>
       <c r="X49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y49" t="s">
         <v>32</v>
@@ -5983,7 +5983,7 @@
         <v>32</v>
       </c>
       <c r="X50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y50" t="s">
         <v>32</v>
@@ -6060,7 +6060,7 @@
         <v>32</v>
       </c>
       <c r="X51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y51" t="s">
         <v>32</v>
@@ -6137,7 +6137,7 @@
         <v>32</v>
       </c>
       <c r="X52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y52" t="s">
         <v>32</v>
@@ -6214,7 +6214,7 @@
         <v>32</v>
       </c>
       <c r="X53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y53" t="s">
         <v>32</v>
@@ -6291,7 +6291,7 @@
         <v>32</v>
       </c>
       <c r="X54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y54" t="s">
         <v>32</v>
@@ -6368,7 +6368,7 @@
         <v>32</v>
       </c>
       <c r="X55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y55" t="s">
         <v>32</v>
@@ -6445,7 +6445,7 @@
         <v>32</v>
       </c>
       <c r="X56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y56" t="s">
         <v>32</v>
@@ -6522,7 +6522,7 @@
         <v>32</v>
       </c>
       <c r="X57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y57" t="s">
         <v>32</v>
@@ -6599,7 +6599,7 @@
         <v>32</v>
       </c>
       <c r="X58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y58" t="s">
         <v>32</v>
@@ -6676,7 +6676,7 @@
         <v>32</v>
       </c>
       <c r="X59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y59" t="s">
         <v>32</v>
@@ -6753,7 +6753,7 @@
         <v>32</v>
       </c>
       <c r="X60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y60" t="s">
         <v>32</v>
@@ -6830,7 +6830,7 @@
         <v>32</v>
       </c>
       <c r="X61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y61" t="s">
         <v>32</v>
@@ -6907,7 +6907,7 @@
         <v>32</v>
       </c>
       <c r="X62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y62" t="s">
         <v>32</v>
@@ -6978,7 +6978,7 @@
         <v>37</v>
       </c>
       <c r="V63" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="W63" t="s">
         <v>32</v>
@@ -7061,7 +7061,7 @@
         <v>32</v>
       </c>
       <c r="X64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y64" t="s">
         <v>32</v>
@@ -7138,7 +7138,7 @@
         <v>32</v>
       </c>
       <c r="X65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y65" t="s">
         <v>32</v>
@@ -7215,7 +7215,7 @@
         <v>32</v>
       </c>
       <c r="X66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y66" t="s">
         <v>32</v>
@@ -7292,7 +7292,7 @@
         <v>32</v>
       </c>
       <c r="X67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y67" t="s">
         <v>32</v>
@@ -7363,7 +7363,7 @@
         <v>37</v>
       </c>
       <c r="V68" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="W68" t="s">
         <v>32</v>
@@ -7446,7 +7446,7 @@
         <v>32</v>
       </c>
       <c r="X69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y69" t="s">
         <v>32</v>
@@ -7523,7 +7523,7 @@
         <v>32</v>
       </c>
       <c r="X70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y70" t="s">
         <v>32</v>
@@ -7594,13 +7594,13 @@
         <v>37</v>
       </c>
       <c r="V71" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="W71" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="X71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y71" t="s">
         <v>32</v>
@@ -7671,7 +7671,7 @@
         <v>37</v>
       </c>
       <c r="V72" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="W72" t="s">
         <v>32</v>
@@ -7754,7 +7754,7 @@
         <v>32</v>
       </c>
       <c r="X73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y73" t="s">
         <v>32</v>
@@ -7825,13 +7825,13 @@
         <v>37</v>
       </c>
       <c r="V74" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="W74" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="X74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y74" t="s">
         <v>32</v>
@@ -7908,7 +7908,7 @@
         <v>32</v>
       </c>
       <c r="X75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y75" t="s">
         <v>32</v>
@@ -7985,7 +7985,7 @@
         <v>32</v>
       </c>
       <c r="X76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y76" t="s">
         <v>32</v>
@@ -8062,7 +8062,7 @@
         <v>32</v>
       </c>
       <c r="X77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y77" t="s">
         <v>32</v>
@@ -8133,7 +8133,7 @@
         <v>37</v>
       </c>
       <c r="V78" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="W78" t="s">
         <v>32</v>
@@ -8210,7 +8210,7 @@
         <v>37</v>
       </c>
       <c r="V79" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="W79" t="s">
         <v>32</v>
@@ -8293,7 +8293,7 @@
         <v>32</v>
       </c>
       <c r="X80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y80" t="s">
         <v>32</v>
@@ -8370,7 +8370,7 @@
         <v>32</v>
       </c>
       <c r="X81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y81" t="s">
         <v>32</v>
@@ -8447,7 +8447,7 @@
         <v>32</v>
       </c>
       <c r="X82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y82" t="s">
         <v>32</v>
@@ -8524,7 +8524,7 @@
         <v>32</v>
       </c>
       <c r="X83" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y83" t="s">
         <v>32</v>
@@ -8601,7 +8601,7 @@
         <v>32</v>
       </c>
       <c r="X84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y84" t="s">
         <v>32</v>
@@ -8678,7 +8678,7 @@
         <v>32</v>
       </c>
       <c r="X85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y85" t="s">
         <v>32</v>
@@ -8755,7 +8755,7 @@
         <v>32</v>
       </c>
       <c r="X86" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y86" t="s">
         <v>32</v>
@@ -8832,7 +8832,7 @@
         <v>32</v>
       </c>
       <c r="X87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y87" t="s">
         <v>32</v>
@@ -8900,10 +8900,10 @@
         <v>32</v>
       </c>
       <c r="U88" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V88" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="W88" t="s">
         <v>32</v>
@@ -8986,7 +8986,7 @@
         <v>32</v>
       </c>
       <c r="X89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y89" t="s">
         <v>32</v>
@@ -9063,7 +9063,7 @@
         <v>32</v>
       </c>
       <c r="X90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y90" t="s">
         <v>32</v>
@@ -9140,7 +9140,7 @@
         <v>32</v>
       </c>
       <c r="X91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y91" t="s">
         <v>32</v>
@@ -9211,7 +9211,7 @@
         <v>37</v>
       </c>
       <c r="V92" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="W92" t="s">
         <v>32</v>
@@ -9294,7 +9294,7 @@
         <v>32</v>
       </c>
       <c r="X93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y93" t="s">
         <v>32</v>
@@ -9371,7 +9371,7 @@
         <v>32</v>
       </c>
       <c r="X94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y94" t="s">
         <v>32</v>
